--- a/Muestreo de Datos/Proveedor-MuestreoDatos.xlsx
+++ b/Muestreo de Datos/Proveedor-MuestreoDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isabe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4B5BB8-ADAF-4E1B-A6C9-4D91AC6AC32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9CB450-DD78-4BF7-A42B-16B2424ED74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Nombre</t>
   </si>
@@ -114,9 +114,6 @@
     <t xml:space="preserve">Combinacion Unica </t>
   </si>
   <si>
-    <t xml:space="preserve">Producto </t>
-  </si>
-  <si>
     <t xml:space="preserve">Identificador </t>
   </si>
   <si>
@@ -145,9 +142,6 @@
   </si>
   <si>
     <t>Proveedor de Gorras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proveedor </t>
   </si>
   <si>
     <t>Objeto de dominio el cual representa una empresa que suministra productos a la tienda</t>
@@ -417,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -456,6 +450,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1797,7 +1792,7 @@
   <dimension ref="A1:D998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1824,44 +1819,44 @@
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>24</v>
+      <c r="D2" s="30" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>35</v>
+      <c r="D3" s="29" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34994,13 +34989,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>23</v>
@@ -35011,10 +35006,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>B2&amp;"-"&amp;C2</f>
@@ -35026,10 +35021,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="15" t="str">
         <f t="shared" ref="D3:D4" si="0">B3&amp;"-"&amp;C3</f>
@@ -35041,10 +35036,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="15" t="str">
         <f t="shared" si="0"/>
@@ -35075,25 +35070,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>6</v>
@@ -35104,22 +35099,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>B2&amp;"-"&amp;C2</f>
@@ -35131,22 +35126,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>57</v>
-      </c>
       <c r="G3" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" ref="H3:H4" si="0">B3&amp;"-"&amp;C3</f>
@@ -35158,22 +35153,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="0"/>
